--- a/public/static/questions.xlsx
+++ b/public/static/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\admpp\public\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E2643C-9BC3-4F1F-958C-8C5D9CFDCA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7083D3-178C-4820-88D9-BB57CFFCECD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F304B4F0-86CC-4BA6-BAB5-DE1CC1C2D3B6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>الأسئلة</t>
   </si>
@@ -207,6 +207,27 @@
   <si>
     <t xml:space="preserve"> ماهو الاجراء إذا لم تعجبني الصناديق بعد استلامها؟ هل تقبلون الإرجاع؟
 </t>
+  </si>
+  <si>
+    <t>svg</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-box"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-money-bill"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-truck"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-paint-roller"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-money-bill-transfer"&gt;&lt;/i&gt;</t>
   </si>
 </sst>
 </file>
@@ -625,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87FD290-7131-482A-B3B1-9149566DE080}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +659,7 @@
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -648,8 +669,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -659,8 +683,11 @@
       <c r="C2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
@@ -670,8 +697,11 @@
       <c r="C3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>40</v>
       </c>
@@ -682,7 +712,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
@@ -692,8 +722,11 @@
       <c r="C5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>43</v>
       </c>
@@ -703,8 +736,11 @@
       <c r="C6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -715,7 +751,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -726,7 +762,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -737,7 +773,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -747,8 +783,11 @@
       <c r="C10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -759,7 +798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -770,7 +809,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -781,7 +820,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>45</v>
       </c>
@@ -792,7 +831,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>21</v>
       </c>
@@ -803,7 +842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -814,7 +853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -825,7 +864,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -836,7 +875,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>46</v>
       </c>
@@ -846,8 +885,11 @@
       <c r="C19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
